--- a/data/inputs/market_penetration_gender.xlsx
+++ b/data/inputs/market_penetration_gender.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\impact-measurement-framework\data\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TahaZafar\Documents\Projects\hfa-sroi-impact-model\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03646FF5-832D-48F1-9036-BE0E82D9DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457F894-F2B2-45AA-A6A5-91645FB05C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3EE3029F-EC3C-4F96-A82B-660F55114946}"/>
   </bookViews>
@@ -147,18 +147,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D79B"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,30 +167,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +521,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +556,7 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -586,16 +573,16 @@
       <c r="D2" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>4362586</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>305381.02</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>181192.74</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>2001459.38</v>
       </c>
     </row>
@@ -612,16 +599,16 @@
       <c r="D3" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>4362586</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>305381.02</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>123170.34</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>2073714.24</v>
       </c>
     </row>
@@ -638,16 +625,16 @@
       <c r="D4" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>59797120.630000003</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2690870.43</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1607509.55</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>30782242.969999999</v>
       </c>
     </row>
@@ -664,16 +651,16 @@
       <c r="D5" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>59797120.630000003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>2690870.43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1072356.2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>26476403.670000002</v>
       </c>
     </row>
@@ -690,16 +677,16 @@
       <c r="D6" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2789684.32</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>379397.07</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>174629.62</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>1264126.8</v>
       </c>
     </row>
@@ -716,16 +703,16 @@
       <c r="D7" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>2789684.32</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>379397.07</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>204299.29</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1119406.8799999999</v>
       </c>
     </row>
@@ -742,16 +729,16 @@
       <c r="D8" s="2">
         <v>0.23</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>14329624.619999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>3295813.66</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>1631910.28</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>4808331.5999999996</v>
       </c>
     </row>
@@ -768,21 +755,21 @@
       <c r="D9" s="2">
         <v>0.23</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>14329624.619999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>3295813.66</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>1642052.69</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>7258700.21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -794,21 +781,21 @@
       <c r="D10" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>21705736.649999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1280638.46</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>682142.76</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>11416073.02</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -820,16 +807,16 @@
       <c r="D11" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>21705736.649999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>1280638.46</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>595854.4</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>9243321.3900000006</v>
       </c>
     </row>
@@ -846,16 +833,16 @@
       <c r="D12" s="2">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>23217292.82</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>2762857.85</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>1407327.06</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>9757000.3900000006</v>
       </c>
     </row>
@@ -872,16 +859,16 @@
       <c r="D13" s="2">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>23217292.82</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>2762857.85</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>1355530.78</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>10712630.09</v>
       </c>
     </row>
@@ -898,16 +885,16 @@
       <c r="D14" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>48571552.07</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>6508587.9800000004</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>3721174.16</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>21717536.489999998</v>
       </c>
     </row>
@@ -924,16 +911,16 @@
       <c r="D15" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>48571552.07</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>6508587.9800000004</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>2787413.82</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>19861414.809999999</v>
       </c>
     </row>
@@ -950,16 +937,16 @@
       <c r="D16" s="2">
         <v>0.16</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>1996084.3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>319373.49</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>135700.07</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>870142</v>
       </c>
     </row>
@@ -976,68 +963,68 @@
       <c r="D17" s="2">
         <v>0.16</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>1996084.3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>319373.49</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>182153.49</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>887903.38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>173940667.16999999</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <v>41223938.119999997</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>24166441.899999999</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="6">
         <v>53580151.189999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>173940667.16999999</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>41223938.119999997</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>16402257.369999999</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="6">
         <v>77081657.480000004</v>
       </c>
     </row>
@@ -1054,16 +1041,16 @@
       <c r="D20" s="2">
         <v>0.11</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>20781785.550000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>2285996.41</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>1068964.07</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>7149460.7800000003</v>
       </c>
     </row>
@@ -1080,16 +1067,16 @@
       <c r="D21" s="2">
         <v>0.11</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>20781785.550000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>2285996.41</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>1194252.8400000001</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>10075194.08</v>
       </c>
     </row>
